--- a/data/input/employee_absence_data_31.xlsx
+++ b/data/input/employee_absence_data_31.xlsx
@@ -464,224 +464,224 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33054</v>
+        <v>61086</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ravi da Mota</t>
+          <t>Breno Cirino</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>6683.49</v>
+        <v>9072.370000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74194</v>
+        <v>9916</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liz Pacheco</t>
+          <t>Guilherme Sousa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>6572.19</v>
+        <v>4531.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50593</v>
+        <v>4248</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Clara Martins</t>
+          <t>Otto Pinto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>10034.8</v>
+        <v>9851.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22336</v>
+        <v>80295</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marina da Rocha</t>
+          <t>Maria Luísa Macedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>4348.24</v>
+        <v>7867.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70326</v>
+        <v>27956</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rebeca Alves</t>
+          <t>Isaque Marques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45094</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>4733.29</v>
+        <v>3659.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48637</v>
+        <v>47</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Evelyn Pacheco</t>
+          <t>Olivia Macedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>7439.63</v>
+        <v>9903.530000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89846</v>
+        <v>22937</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Beatriz Vargas</t>
+          <t>Luana Fernandes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>7750.41</v>
+        <v>3630.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29240</v>
+        <v>42081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Helena Viana</t>
+          <t>Gael Leão</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -691,65 +691,65 @@
         <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>11959.77</v>
+        <v>3198.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10878</v>
+        <v>48812</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Laura Rocha</t>
+          <t>Nathan Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45106</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>11870.74</v>
+        <v>5212.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94597</v>
+        <v>78853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Camargo</t>
+          <t>Fernando Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>7108.66</v>
+        <v>5205.82</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_31.xlsx
+++ b/data/input/employee_absence_data_31.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61086</v>
+        <v>91707</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Breno Cirino</t>
+          <t>Sr. Yago Ferreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,85 +482,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45097</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>9072.370000000001</v>
+        <v>8390.200000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9916</v>
+        <v>90600</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guilherme Sousa</t>
+          <t>Davi Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45103</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>4531.41</v>
+        <v>9814.120000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4248</v>
+        <v>76328</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Otto Pinto</t>
+          <t>Srta. Luiza Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45088</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>9851.68</v>
+        <v>8423.440000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80295</v>
+        <v>65140</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Luísa Macedo</t>
+          <t>Srta. Marina Brito</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,27 +569,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45084</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>7867.06</v>
+        <v>2072.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27956</v>
+        <v>16929</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isaque Marques</t>
+          <t>Isabela Araújo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>3659.94</v>
+        <v>7442.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>47</v>
+        <v>99368</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Olivia Macedo</t>
+          <t>Caleb Camargo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,84 +623,84 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>9903.530000000001</v>
+        <v>2099.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22937</v>
+        <v>7903</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luana Fernandes</t>
+          <t>Emanuelly Guerra</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>3630.26</v>
+        <v>6665.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42081</v>
+        <v>7041</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gael Leão</t>
+          <t>Sr. Vinícius Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45090</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>3198.99</v>
+        <v>7156.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>48812</v>
+        <v>26315</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nathan Barbosa</t>
+          <t>Emanuel das Neves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,31 +710,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>5212.71</v>
+        <v>7970.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78853</v>
+        <v>54903</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fernando Monteiro</t>
+          <t>Josué Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>5205.82</v>
+        <v>9131.75</v>
       </c>
     </row>
   </sheetData>
